--- a/Trabalho/Dados.xlsx
+++ b/Trabalho/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Faculdade\Faculdade-IIA\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C223C2CE-C393-45F5-9518-0ED28C3677BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F06E4D9-1821-47F2-B09D-2BDA24285061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
-  <si>
-    <t>Código do Aluno</t>
-  </si>
   <si>
     <t>Nome</t>
   </si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>Bimestre 4</t>
-  </si>
-  <si>
-    <t>José</t>
   </si>
   <si>
     <t>Lucas</t>
@@ -58,12 +52,6 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>Jesé</t>
-  </si>
-  <si>
-    <t>Mário</t>
-  </si>
-  <si>
     <t>Miguel</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
   </si>
   <si>
     <t>Gael</t>
-  </si>
-  <si>
-    <t>Théo</t>
   </si>
   <si>
     <t>Heitor</t>
@@ -136,13 +121,7 @@
     <t>Manuela</t>
   </si>
   <si>
-    <t>Maitê</t>
-  </si>
-  <si>
     <t>Liz</t>
-  </si>
-  <si>
-    <t>Cecília</t>
   </si>
   <si>
     <t>Isabella</t>
@@ -154,13 +133,7 @@
     <t>Zoe</t>
   </si>
   <si>
-    <t>Maria Vitória</t>
-  </si>
-  <si>
     <t>Nicole</t>
-  </si>
-  <si>
-    <t>Laís</t>
   </si>
   <si>
     <t>Melina</t>
@@ -173,9 +146,6 @@
   </si>
   <si>
     <t>Ana Beatriz</t>
-  </si>
-  <si>
-    <t>Heloíse</t>
   </si>
   <si>
     <t>Joaquim</t>
@@ -193,9 +163,6 @@
     <t>Henrique</t>
   </si>
   <si>
-    <t>João Miguel</t>
-  </si>
-  <si>
     <t>Henry</t>
   </si>
   <si>
@@ -211,25 +178,13 @@
     <t>Milena</t>
   </si>
   <si>
-    <t>Ágatha</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
     <t>Martin</t>
-  </si>
-  <si>
-    <t>José Miguel</t>
   </si>
   <si>
     <t>Erick</t>
   </si>
   <si>
     <t>Liam</t>
-  </si>
-  <si>
-    <t>Josué</t>
   </si>
   <si>
     <t>Luan</t>
@@ -271,10 +226,55 @@
     <t>Mirella</t>
   </si>
   <si>
-    <t>Luísa</t>
+    <t>Jose</t>
   </si>
   <si>
-    <t>Eloá</t>
+    <t>Jese</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Jose Miguel</t>
+  </si>
+  <si>
+    <t>Josue</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>agatha</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Eloa</t>
+  </si>
+  <si>
+    <t>Maite</t>
+  </si>
+  <si>
+    <t>Codigo do Aluno</t>
+  </si>
+  <si>
+    <t>Maria Vitoria</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Lais</t>
+  </si>
+  <si>
+    <t>Heloise</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Joao Miguel</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -634,22 +634,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="1"/>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>9.5</v>
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>8.5</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -867,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>6.2</v>
@@ -890,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -913,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>7</v>
@@ -936,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -959,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>6.7</v>
@@ -1005,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>9</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>7</v>
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -1074,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -1097,7 +1097,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
@@ -1120,7 +1120,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1143,7 +1143,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
@@ -1166,7 +1166,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>9</v>
@@ -1189,7 +1189,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -1212,7 +1212,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <v>8</v>
@@ -1235,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1281,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <v>7.8</v>
@@ -1304,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
@@ -1327,7 +1327,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>8</v>
@@ -1373,7 +1373,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>5</v>
@@ -1396,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
         <v>6</v>
@@ -1419,7 +1419,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
@@ -1442,7 +1442,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
@@ -1465,7 +1465,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>5.5</v>
@@ -1488,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -1511,7 +1511,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -1534,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -1557,7 +1557,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -1580,7 +1580,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -1603,7 +1603,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
@@ -1626,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -1649,7 +1649,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1">
         <v>9</v>
@@ -1718,7 +1718,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -1741,7 +1741,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
         <v>7</v>
@@ -1764,7 +1764,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
         <v>9</v>
@@ -1787,7 +1787,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -1810,7 +1810,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
@@ -1833,7 +1833,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>8</v>
@@ -1856,7 +1856,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1">
         <v>6.2</v>
@@ -1879,7 +1879,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
@@ -1902,7 +1902,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1">
         <v>7</v>
@@ -1925,7 +1925,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1">
         <v>10</v>
@@ -1948,7 +1948,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
@@ -1971,7 +1971,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
@@ -1994,7 +1994,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -2017,7 +2017,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1">
         <v>5</v>
@@ -2040,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
@@ -2063,7 +2063,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1">
         <v>10</v>
@@ -2086,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
@@ -2109,7 +2109,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C65" s="1">
         <v>8</v>
@@ -2132,7 +2132,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -2155,7 +2155,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C67" s="1">
         <v>4</v>
@@ -2178,7 +2178,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -2201,7 +2201,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1">
         <v>10</v>
@@ -2224,7 +2224,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -2247,7 +2247,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
@@ -2270,7 +2270,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -2293,7 +2293,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
@@ -2316,7 +2316,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
@@ -2362,7 +2362,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
@@ -2385,7 +2385,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C77" s="1">
         <v>6</v>
@@ -2408,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1">
         <v>3.5</v>
@@ -2431,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -2454,7 +2454,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C80" s="1">
         <v>6</v>
@@ -2477,7 +2477,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C81" s="1">
         <v>6</v>
@@ -2500,7 +2500,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
         <v>6</v>
@@ -2523,7 +2523,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
@@ -2546,7 +2546,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1">
         <v>8.5</v>
@@ -2569,7 +2569,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C85" s="1">
         <v>9</v>
@@ -2592,7 +2592,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
@@ -2615,7 +2615,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C87" s="1">
         <v>9</v>
@@ -2638,7 +2638,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C88" s="1">
         <v>5</v>
@@ -2661,7 +2661,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C89" s="1">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C90" s="1">
         <v>7.4</v>
@@ -2707,7 +2707,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
@@ -2730,7 +2730,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1">
         <v>3.3</v>
@@ -2753,7 +2753,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
         <v>2.5</v>
@@ -2776,7 +2776,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
@@ -2799,7 +2799,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
@@ -2822,7 +2822,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C97" s="1">
         <v>10</v>
@@ -2868,7 +2868,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>8.5</v>
@@ -2891,7 +2891,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C99" s="1">
         <v>7</v>
@@ -2914,7 +2914,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -2960,7 +2960,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C102" s="1">
         <v>8.5</v>
